--- a/Excel/Formula Data.xlsx
+++ b/Excel/Formula Data.xlsx
@@ -572,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,7 +583,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,10 +650,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -674,14 +674,23 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f>(J3*4)+(I3*4)-((C3*D3*1)+(E3*F3*1)+(G3*H3*1))-((A3*1.8)+(B3*0.8))</f>
-        <v>14.000000000000002</v>
+        <v>9.4</v>
+      </c>
+      <c r="L3">
+        <f>K4-(0.8)</f>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>30.2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -897,7 +906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.7</v>
       </c>
@@ -905,7 +914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.95</v>
       </c>
@@ -913,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.1</v>
       </c>

--- a/Excel/Formula Data.xlsx
+++ b/Excel/Formula Data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Door</t>
   </si>
@@ -213,6 +214,55 @@
   </si>
   <si>
     <t>Window 3</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>5 Bed Ward</t>
+  </si>
+  <si>
+    <t>Hallway of 3rd Floor</t>
+  </si>
+  <si>
+    <t>Isolation Room
+Private Room</t>
+  </si>
+  <si>
+    <t>Solarium</t>
+  </si>
+  <si>
+    <t>Stretcher nook</t>
+  </si>
+  <si>
+    <t>Waiting Area
+Adminting
+Billing
+Cashier</t>
+  </si>
+  <si>
+    <t>Personel's Dining</t>
+  </si>
+  <si>
+    <t>Isolation Room CR
+Personel Dining's CR</t>
+  </si>
+  <si>
+    <t>Personel's Dining Right</t>
+  </si>
+  <si>
+    <t>Admitting</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>Cashier</t>
+  </si>
+  <si>
+    <t>Chief Nurse
+Treatment Room
+Female / Male Toilet</t>
   </si>
 </sst>
 </file>
@@ -572,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -840,7 +890,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,4 +1002,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>